--- a/biology/Médecine/Muscle_transversaire_épineux/Muscle_transversaire_épineux.xlsx
+++ b/biology/Médecine/Muscle_transversaire_épineux/Muscle_transversaire_épineux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_transversaire_%C3%A9pineux</t>
+          <t>Muscle_transversaire_épineux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les muscles transversaires épineux sont des muscles du dos situés dans la région profonde des gouttières vertébrales[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les muscles transversaires épineux sont des muscles du dos situés dans la région profonde des gouttières vertébrales.
 Ce groupe comprend :
 Les 3 muscles semi-épineux recouvrant 4 à 6 segments vertébraux :
 Le muscle semi-épineux de la tête.
@@ -503,7 +515,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_transversaire_%C3%A9pineux</t>
+          <t>Muscle_transversaire_épineux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -521,7 +533,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils sont innervés par les rameaux dorsaux des nerfs spinaux de chaque région.
 </t>
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscle_transversaire_%C3%A9pineux</t>
+          <t>Muscle_transversaire_épineux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +566,9 @@
           <t>Action</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Leur action combinée intervient dans la rotation et l'extension de la colonne vertébrale.
 Ils stabilisent le rachis.
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Muscle_transversaire_%C3%A9pineux</t>
+          <t>Muscle_transversaire_épineux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,9 +600,11 @@
           <t>Culture physique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les transversaires épineux interviennent à la fois comme muscles stabilisateurs et synergiques dans l'exercice du soulevé de terre[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les transversaires épineux interviennent à la fois comme muscles stabilisateurs et synergiques dans l'exercice du soulevé de terre.
 </t>
         </is>
       </c>
